--- a/target/test-classes/VtigerCRMTestData.xlsx
+++ b/target/test-classes/VtigerCRMTestData.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QPS-Basavanagudi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anku\eclipse-workspace\FrameWorkProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1997E0-ABA5-4792-8B21-1F6C82EABC5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B6DD8F-4A83-485E-8BDA-2E3425281340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{A6492B4B-4497-484C-9067-5A512381FFD5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A6492B4B-4497-484C-9067-5A512381FFD5}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -126,13 +126,14 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>C:\Users\QPS-Basavanagudi\Pictures\Camera Roll\WIN_20221106_14_02_38_Pro.jpg</t>
+    <t>C:\Users\anku\Desktop\Screen short\sleepmethod.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -610,20 +611,20 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="14.140625"/>
+    <col min="2" max="2" customWidth="true" style="1" width="37.85546875"/>
+    <col min="3" max="3" customWidth="true" style="1" width="29.28515625"/>
+    <col min="4" max="4" customWidth="true" style="1" width="28.28515625"/>
+    <col min="5" max="5" customWidth="true" style="1" width="16.85546875"/>
+    <col min="6" max="16384" style="1" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -640,7 +641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -654,10 +655,10 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
@@ -668,7 +669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
@@ -679,7 +680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
@@ -690,7 +691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -707,7 +708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -724,7 +725,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
@@ -736,7 +737,7 @@
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
@@ -747,7 +748,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="1" t="s">
         <v>22</v>
@@ -756,7 +757,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
@@ -767,7 +768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
@@ -784,7 +785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -801,7 +802,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
@@ -812,7 +813,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="1" t="s">
         <v>26</v>
@@ -821,7 +822,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="1" t="s">
         <v>30</v>
@@ -830,7 +831,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>9</v>
       </c>

--- a/target/test-classes/VtigerCRMTestData.xlsx
+++ b/target/test-classes/VtigerCRMTestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>TestCase Name</t>
   </si>
